--- a/regionmapping.xlsx
+++ b/regionmapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{B6DEC185-5CD9-4F71-A619-2DAED122682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D841F7A-F300-4140-8F83-7C3FB298E0F7}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{B6DEC185-5CD9-4F71-A619-2DAED122682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484155E6-DFAA-4BE1-9362-4D3F319654D3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98727762-88CB-48CE-8D34-1B4D104E64B4}"/>
   </bookViews>
@@ -4861,10 +4861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BC8F1E-B5AB-4A0D-ACFD-80E3AFA8F114}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4892,7 +4893,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -5011,7 +5012,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5250,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -5929,7 +5930,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>4</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>4</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>4</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6167,7 +6168,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>4</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>4</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>4</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>4</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>4</v>
       </c>
@@ -6388,7 +6389,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
@@ -6405,7 +6406,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>4</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>4</v>
       </c>
@@ -6456,7 +6457,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6473,7 +6474,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>4</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>4</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>4</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>4</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>4</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>4</v>
       </c>
@@ -6677,7 +6678,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>4</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>4</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>4</v>
       </c>
@@ -6745,7 +6746,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>4</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>4</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>4</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>4</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
@@ -6830,7 +6831,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>4</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>4</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>4</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>4</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>4</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>4</v>
       </c>
@@ -6932,7 +6933,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
@@ -6949,7 +6950,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>4</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>4</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>4</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>4</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>4</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>4</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
@@ -7068,7 +7069,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>4</v>
       </c>
@@ -7085,7 +7086,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>4</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>4</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>4</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>4</v>
       </c>
@@ -7153,7 +7154,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>4</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>4</v>
       </c>
@@ -7204,7 +7205,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>4</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>4</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>4</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>4</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>4</v>
       </c>
@@ -7306,7 +7307,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>4</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>4</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>4</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>4</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>4</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>4</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
@@ -7425,7 +7426,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>690</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>690</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>690</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>690</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>690</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>690</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>690</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>690</v>
       </c>
@@ -7561,7 +7562,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>690</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>690</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>690</v>
       </c>
@@ -7612,7 +7613,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>690</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>690</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>690</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>690</v>
       </c>
@@ -7680,7 +7681,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>690</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>690</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>690</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>690</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>690</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>690</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>690</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>690</v>
       </c>
@@ -7816,7 +7817,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>690</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>690</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>690</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>690</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>690</v>
       </c>
@@ -7901,7 +7902,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>690</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>690</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>690</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>690</v>
       </c>
@@ -7969,7 +7970,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>690</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>690</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>690</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>690</v>
       </c>
@@ -8037,7 +8038,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>690</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>690</v>
       </c>
@@ -8071,7 +8072,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>690</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>690</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>690</v>
       </c>
@@ -8122,7 +8123,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>690</v>
       </c>
@@ -8139,7 +8140,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>690</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>690</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>690</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>690</v>
       </c>
@@ -8207,7 +8208,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>690</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>690</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>690</v>
       </c>
@@ -8258,7 +8259,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>690</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>690</v>
       </c>
@@ -8292,7 +8293,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>690</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>690</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>690</v>
       </c>
@@ -8343,7 +8344,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>690</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>690</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>690</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>690</v>
       </c>
@@ -8411,7 +8412,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>690</v>
       </c>
@@ -8428,7 +8429,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>690</v>
       </c>
@@ -8445,7 +8446,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>690</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>690</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>690</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>690</v>
       </c>
@@ -8513,7 +8514,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>690</v>
       </c>
@@ -8530,7 +8531,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>690</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>690</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>690</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>690</v>
       </c>
@@ -8598,7 +8599,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>690</v>
       </c>
@@ -8615,7 +8616,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>690</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>690</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>690</v>
       </c>
@@ -8666,7 +8667,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>690</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>690</v>
       </c>
@@ -8700,7 +8701,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>690</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>690</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>690</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>690</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>690</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>690</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>690</v>
       </c>
@@ -8819,7 +8820,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>690</v>
       </c>
@@ -8836,7 +8837,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>690</v>
       </c>
@@ -8853,7 +8854,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>690</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>690</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>690</v>
       </c>
@@ -8904,7 +8905,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>690</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>690</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>690</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>690</v>
       </c>
@@ -8972,7 +8973,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>690</v>
       </c>
@@ -8989,7 +8990,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>690</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>690</v>
       </c>
@@ -9023,7 +9024,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>690</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>690</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>690</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>690</v>
       </c>
@@ -9091,7 +9092,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>690</v>
       </c>
@@ -9108,7 +9109,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>690</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>690</v>
       </c>
@@ -9142,7 +9143,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>690</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>690</v>
       </c>
@@ -9176,7 +9177,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>690</v>
       </c>
@@ -9193,7 +9194,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>690</v>
       </c>
@@ -9210,7 +9211,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>690</v>
       </c>
@@ -9227,7 +9228,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>690</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>690</v>
       </c>
@@ -9261,7 +9262,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>690</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>690</v>
       </c>
@@ -9295,7 +9296,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>690</v>
       </c>
@@ -9312,7 +9313,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>690</v>
       </c>
@@ -9329,7 +9330,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>690</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>690</v>
       </c>
@@ -9363,7 +9364,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>690</v>
       </c>
@@ -9380,7 +9381,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>690</v>
       </c>
@@ -9397,7 +9398,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>690</v>
       </c>
@@ -9414,7 +9415,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>690</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>690</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>690</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>690</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>690</v>
       </c>
@@ -9499,7 +9500,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>690</v>
       </c>
@@ -9516,7 +9517,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>690</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>690</v>
       </c>
@@ -9550,7 +9551,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>690</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>690</v>
       </c>
@@ -9584,7 +9585,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>690</v>
       </c>
@@ -9601,7 +9602,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>690</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>690</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>690</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>690</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>690</v>
       </c>
@@ -9686,7 +9687,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>690</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>690</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>690</v>
       </c>
@@ -9737,7 +9738,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>690</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>690</v>
       </c>
@@ -9771,7 +9772,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>690</v>
       </c>
@@ -9788,7 +9789,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>690</v>
       </c>
@@ -9805,7 +9806,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>690</v>
       </c>
@@ -9822,7 +9823,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>690</v>
       </c>
@@ -9839,7 +9840,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>690</v>
       </c>
@@ -9856,7 +9857,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>690</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>690</v>
       </c>
@@ -9890,7 +9891,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>690</v>
       </c>
@@ -9907,7 +9908,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>690</v>
       </c>
@@ -9924,7 +9925,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>690</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>690</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>690</v>
       </c>
@@ -9975,7 +9976,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>690</v>
       </c>
@@ -9992,7 +9993,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>690</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>690</v>
       </c>
@@ -10026,7 +10027,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>690</v>
       </c>
@@ -10043,7 +10044,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>690</v>
       </c>
@@ -10060,7 +10061,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>690</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>690</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>690</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>690</v>
       </c>
@@ -10128,7 +10129,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>690</v>
       </c>
@@ -10145,7 +10146,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>690</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>690</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>690</v>
       </c>
@@ -10196,7 +10197,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>690</v>
       </c>
@@ -10213,7 +10214,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>690</v>
       </c>
@@ -10230,7 +10231,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>690</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>690</v>
       </c>
@@ -10264,7 +10265,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>690</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>690</v>
       </c>
@@ -10298,7 +10299,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>691</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>691</v>
       </c>
@@ -10332,7 +10333,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>691</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>691</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>691</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>691</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>691</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>691</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>691</v>
       </c>
@@ -10451,7 +10452,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>691</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>691</v>
       </c>
@@ -10485,7 +10486,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>691</v>
       </c>
@@ -10502,7 +10503,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>691</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>691</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>691</v>
       </c>
@@ -10553,7 +10554,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>691</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>691</v>
       </c>
@@ -10587,7 +10588,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>691</v>
       </c>
@@ -10604,7 +10605,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>691</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>691</v>
       </c>
@@ -10638,7 +10639,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>691</v>
       </c>
@@ -10655,7 +10656,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>691</v>
       </c>
@@ -10672,7 +10673,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>691</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>691</v>
       </c>
@@ -10706,7 +10707,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>691</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>691</v>
       </c>
@@ -10740,7 +10741,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>691</v>
       </c>
@@ -10757,7 +10758,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>691</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>691</v>
       </c>
@@ -10791,7 +10792,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>691</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>691</v>
       </c>
@@ -10825,7 +10826,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>691</v>
       </c>
@@ -10842,7 +10843,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>691</v>
       </c>
@@ -10859,7 +10860,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>691</v>
       </c>
@@ -10876,7 +10877,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>691</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>691</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>691</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>691</v>
       </c>
@@ -10944,7 +10945,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>691</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>691</v>
       </c>
@@ -10978,7 +10979,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>691</v>
       </c>
@@ -10995,7 +10996,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>691</v>
       </c>
@@ -11012,7 +11013,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>691</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>691</v>
       </c>
@@ -11046,7 +11047,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>691</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>691</v>
       </c>
@@ -11080,7 +11081,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>691</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>691</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>691</v>
       </c>
@@ -11131,7 +11132,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>691</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>691</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>691</v>
       </c>
@@ -11182,7 +11183,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>691</v>
       </c>
@@ -11199,7 +11200,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>691</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>691</v>
       </c>
@@ -11233,7 +11234,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>691</v>
       </c>
@@ -11250,7 +11251,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>691</v>
       </c>
@@ -11284,7 +11285,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>691</v>
       </c>
@@ -11301,7 +11302,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>691</v>
       </c>
@@ -11318,7 +11319,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>691</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>691</v>
       </c>
@@ -11352,7 +11353,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>691</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>691</v>
       </c>
@@ -11386,7 +11387,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>691</v>
       </c>
@@ -11403,7 +11404,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>691</v>
       </c>
@@ -11420,7 +11421,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>691</v>
       </c>
@@ -11437,7 +11438,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>691</v>
       </c>
@@ -11454,7 +11455,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>691</v>
       </c>
@@ -11471,7 +11472,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>691</v>
       </c>
@@ -11488,7 +11489,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>691</v>
       </c>
@@ -11505,7 +11506,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>691</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>691</v>
       </c>
@@ -11539,7 +11540,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>691</v>
       </c>
@@ -11556,7 +11557,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>691</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>691</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>691</v>
       </c>
@@ -11607,7 +11608,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>691</v>
       </c>
@@ -11624,7 +11625,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>691</v>
       </c>
@@ -11641,7 +11642,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>691</v>
       </c>
@@ -11658,7 +11659,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>691</v>
       </c>
@@ -11675,7 +11676,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>691</v>
       </c>
@@ -11692,7 +11693,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>691</v>
       </c>
@@ -11709,7 +11710,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>691</v>
       </c>
@@ -11726,7 +11727,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>691</v>
       </c>
@@ -11743,7 +11744,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>691</v>
       </c>
@@ -11760,7 +11761,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>691</v>
       </c>
@@ -11777,7 +11778,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>691</v>
       </c>
@@ -11794,7 +11795,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>691</v>
       </c>
@@ -11811,7 +11812,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>691</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>691</v>
       </c>
@@ -11845,7 +11846,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>691</v>
       </c>
@@ -11862,7 +11863,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>691</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>691</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>691</v>
       </c>
@@ -11913,7 +11914,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>691</v>
       </c>
@@ -11930,7 +11931,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>691</v>
       </c>
@@ -11947,7 +11948,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>691</v>
       </c>
@@ -11964,7 +11965,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>691</v>
       </c>
@@ -11981,7 +11982,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>691</v>
       </c>
@@ -11998,7 +11999,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>691</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>691</v>
       </c>
@@ -12032,7 +12033,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>691</v>
       </c>
@@ -12049,7 +12050,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>691</v>
       </c>
@@ -12066,7 +12067,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>691</v>
       </c>
@@ -12083,7 +12084,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>691</v>
       </c>
@@ -12100,7 +12101,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>691</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>691</v>
       </c>
@@ -12134,7 +12135,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>691</v>
       </c>
@@ -12151,7 +12152,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>691</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>691</v>
       </c>
@@ -12185,7 +12186,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
         <v>691</v>
       </c>
@@ -12202,7 +12203,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>691</v>
       </c>
@@ -12219,7 +12220,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>691</v>
       </c>
@@ -12236,7 +12237,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>691</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>691</v>
       </c>
@@ -12270,7 +12271,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>691</v>
       </c>
@@ -12287,7 +12288,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>691</v>
       </c>
@@ -12304,7 +12305,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>691</v>
       </c>
@@ -12321,7 +12322,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>691</v>
       </c>
@@ -12338,7 +12339,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>691</v>
       </c>
@@ -12355,7 +12356,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>691</v>
       </c>
@@ -12372,7 +12373,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>691</v>
       </c>
@@ -12389,7 +12390,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>691</v>
       </c>
@@ -12406,7 +12407,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>691</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>691</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>691</v>
       </c>
@@ -12457,7 +12458,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>691</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>691</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>691</v>
       </c>
@@ -12508,7 +12509,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
         <v>691</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>691</v>
       </c>
@@ -12542,7 +12543,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>691</v>
       </c>
@@ -12559,7 +12560,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>691</v>
       </c>
@@ -12576,7 +12577,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>691</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>691</v>
       </c>
@@ -12610,7 +12611,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>691</v>
       </c>
@@ -12627,7 +12628,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>691</v>
       </c>
@@ -12644,7 +12645,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>691</v>
       </c>
@@ -12661,7 +12662,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>691</v>
       </c>
@@ -12678,7 +12679,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>691</v>
       </c>
@@ -12695,7 +12696,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>691</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>691</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
         <v>691</v>
       </c>
@@ -12746,7 +12747,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
         <v>691</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
         <v>691</v>
       </c>
@@ -12780,7 +12781,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
         <v>691</v>
       </c>
@@ -12797,7 +12798,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
         <v>691</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
         <v>691</v>
       </c>
@@ -12831,7 +12832,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
         <v>691</v>
       </c>
@@ -12848,7 +12849,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
         <v>691</v>
       </c>
@@ -12865,7 +12866,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
         <v>691</v>
       </c>
@@ -12882,7 +12883,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>691</v>
       </c>
@@ -12899,7 +12900,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
         <v>691</v>
       </c>
@@ -12916,7 +12917,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
         <v>691</v>
       </c>
@@ -12933,7 +12934,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
         <v>691</v>
       </c>
@@ -12950,7 +12951,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>691</v>
       </c>
@@ -12967,7 +12968,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
         <v>691</v>
       </c>
@@ -12984,7 +12985,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>691</v>
       </c>
@@ -13001,7 +13002,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
         <v>691</v>
       </c>
@@ -13018,7 +13019,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
         <v>691</v>
       </c>
@@ -13035,7 +13036,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>691</v>
       </c>
@@ -13052,7 +13053,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>691</v>
       </c>
@@ -13069,7 +13070,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>691</v>
       </c>
@@ -13086,7 +13087,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>691</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>691</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
         <v>691</v>
       </c>
@@ -13137,7 +13138,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>691</v>
       </c>
@@ -13154,7 +13155,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>691</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>691</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>691</v>
       </c>
@@ -13205,7 +13206,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>691</v>
       </c>
@@ -13222,7 +13223,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>691</v>
       </c>
@@ -13239,7 +13240,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
         <v>691</v>
       </c>
@@ -13256,7 +13257,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
         <v>691</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
         <v>691</v>
       </c>
@@ -13290,7 +13291,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>691</v>
       </c>
@@ -13307,7 +13308,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>691</v>
       </c>
@@ -13324,7 +13325,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>691</v>
       </c>
@@ -13341,7 +13342,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>691</v>
       </c>
@@ -13358,7 +13359,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>691</v>
       </c>
@@ -13375,7 +13376,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>691</v>
       </c>
@@ -13392,7 +13393,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>691</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>692</v>
       </c>
@@ -13426,7 +13427,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>692</v>
       </c>
@@ -13443,7 +13444,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
         <v>692</v>
       </c>
@@ -13460,7 +13461,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>692</v>
       </c>
@@ -13477,7 +13478,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
         <v>692</v>
       </c>
@@ -13494,7 +13495,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
         <v>692</v>
       </c>
@@ -13511,7 +13512,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
         <v>692</v>
       </c>
@@ -13528,7 +13529,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
         <v>692</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
         <v>692</v>
       </c>
@@ -13562,7 +13563,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
         <v>692</v>
       </c>
@@ -13579,7 +13580,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
         <v>692</v>
       </c>
@@ -13596,7 +13597,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
         <v>692</v>
       </c>
@@ -13613,7 +13614,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
         <v>692</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
         <v>692</v>
       </c>
@@ -13647,7 +13648,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
         <v>692</v>
       </c>
@@ -13664,7 +13665,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
         <v>692</v>
       </c>
@@ -13681,7 +13682,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
         <v>692</v>
       </c>
@@ -13698,7 +13699,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
         <v>692</v>
       </c>
@@ -13715,7 +13716,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
         <v>692</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
         <v>692</v>
       </c>
@@ -13749,7 +13750,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
         <v>692</v>
       </c>
@@ -13766,7 +13767,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
         <v>692</v>
       </c>
@@ -13783,7 +13784,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
         <v>692</v>
       </c>
@@ -13800,7 +13801,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
         <v>692</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
         <v>692</v>
       </c>
@@ -13834,7 +13835,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
         <v>692</v>
       </c>
@@ -13851,7 +13852,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
         <v>692</v>
       </c>
@@ -13868,7 +13869,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
         <v>692</v>
       </c>
@@ -13885,7 +13886,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
         <v>692</v>
       </c>
@@ -13902,7 +13903,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
         <v>692</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
         <v>692</v>
       </c>
@@ -13936,7 +13937,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
         <v>692</v>
       </c>
@@ -13953,7 +13954,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
         <v>692</v>
       </c>
@@ -13970,7 +13971,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
         <v>692</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
         <v>692</v>
       </c>
@@ -14004,7 +14005,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
         <v>692</v>
       </c>
@@ -14021,7 +14022,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
         <v>692</v>
       </c>
@@ -14038,7 +14039,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
         <v>692</v>
       </c>
@@ -14055,7 +14056,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
         <v>692</v>
       </c>
@@ -14072,7 +14073,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
         <v>692</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
         <v>692</v>
       </c>
@@ -14106,7 +14107,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
         <v>692</v>
       </c>
@@ -14123,7 +14124,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
         <v>692</v>
       </c>
@@ -14140,7 +14141,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
         <v>692</v>
       </c>
@@ -14157,7 +14158,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
         <v>692</v>
       </c>
@@ -14174,7 +14175,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
         <v>692</v>
       </c>
@@ -14191,7 +14192,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
         <v>692</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
         <v>692</v>
       </c>
@@ -14225,7 +14226,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
         <v>692</v>
       </c>
@@ -14242,7 +14243,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
         <v>692</v>
       </c>
@@ -14259,7 +14260,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
         <v>692</v>
       </c>
@@ -14276,7 +14277,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
         <v>692</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
         <v>692</v>
       </c>
@@ -14310,7 +14311,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3" t="s">
         <v>692</v>
       </c>
@@ -14327,7 +14328,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
         <v>692</v>
       </c>
@@ -14344,7 +14345,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
         <v>692</v>
       </c>
@@ -14361,7 +14362,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
         <v>692</v>
       </c>
@@ -14378,7 +14379,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
         <v>692</v>
       </c>
@@ -14395,7 +14396,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
         <v>692</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
         <v>692</v>
       </c>
@@ -14429,7 +14430,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
         <v>692</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
         <v>692</v>
       </c>
@@ -14463,7 +14464,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
         <v>692</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
         <v>692</v>
       </c>
@@ -14497,7 +14498,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
         <v>692</v>
       </c>
@@ -14514,7 +14515,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
         <v>692</v>
       </c>
@@ -14531,7 +14532,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
         <v>692</v>
       </c>
@@ -14548,7 +14549,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="3" t="s">
         <v>692</v>
       </c>
@@ -14565,7 +14566,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
         <v>692</v>
       </c>
@@ -14582,7 +14583,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="3" t="s">
         <v>692</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
         <v>692</v>
       </c>
@@ -14616,7 +14617,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="3" t="s">
         <v>692</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
         <v>692</v>
       </c>
@@ -14650,7 +14651,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="3" t="s">
         <v>692</v>
       </c>
@@ -14667,7 +14668,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
         <v>692</v>
       </c>
@@ -14684,7 +14685,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
         <v>692</v>
       </c>
@@ -14701,7 +14702,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
         <v>692</v>
       </c>
@@ -14718,7 +14719,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="3" t="s">
         <v>692</v>
       </c>
@@ -14735,7 +14736,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
         <v>692</v>
       </c>
@@ -14752,7 +14753,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="3" t="s">
         <v>692</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
         <v>692</v>
       </c>
@@ -14786,7 +14787,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="3" t="s">
         <v>692</v>
       </c>
@@ -14803,7 +14804,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
         <v>692</v>
       </c>
@@ -14820,7 +14821,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="3" t="s">
         <v>692</v>
       </c>
@@ -14837,7 +14838,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
         <v>692</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="3" t="s">
         <v>692</v>
       </c>
@@ -14871,7 +14872,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
         <v>692</v>
       </c>
@@ -14888,7 +14889,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="3" t="s">
         <v>692</v>
       </c>
@@ -14905,7 +14906,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
         <v>692</v>
       </c>
@@ -14922,7 +14923,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="3" t="s">
         <v>692</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
         <v>692</v>
       </c>
@@ -14956,7 +14957,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
         <v>692</v>
       </c>
@@ -14973,7 +14974,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
         <v>692</v>
       </c>
@@ -14990,7 +14991,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="3" t="s">
         <v>692</v>
       </c>
@@ -15007,7 +15008,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
         <v>692</v>
       </c>
@@ -15024,7 +15025,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
         <v>692</v>
       </c>
@@ -15041,7 +15042,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
         <v>692</v>
       </c>
@@ -15058,7 +15059,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
         <v>692</v>
       </c>
@@ -15075,7 +15076,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
         <v>692</v>
       </c>
@@ -15092,7 +15093,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="3" t="s">
         <v>692</v>
       </c>
@@ -15109,7 +15110,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
         <v>692</v>
       </c>
@@ -15126,7 +15127,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="3" t="s">
         <v>692</v>
       </c>
@@ -15143,7 +15144,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
         <v>692</v>
       </c>
@@ -15160,7 +15161,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
         <v>692</v>
       </c>
@@ -15177,7 +15178,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
         <v>692</v>
       </c>
@@ -15194,7 +15195,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="3" t="s">
         <v>692</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
         <v>692</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="3" t="s">
         <v>692</v>
       </c>
@@ -15245,7 +15246,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
         <v>692</v>
       </c>
@@ -15262,7 +15263,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="3" t="s">
         <v>692</v>
       </c>
@@ -15279,7 +15280,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
         <v>692</v>
       </c>
@@ -15296,7 +15297,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="3" t="s">
         <v>692</v>
       </c>
@@ -15313,7 +15314,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
         <v>692</v>
       </c>
@@ -15330,7 +15331,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="3" t="s">
         <v>692</v>
       </c>
@@ -15347,7 +15348,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
         <v>692</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
         <v>692</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
         <v>692</v>
       </c>
@@ -15398,7 +15399,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
         <v>692</v>
       </c>
@@ -15415,7 +15416,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
         <v>692</v>
       </c>
@@ -15432,7 +15433,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
         <v>692</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
         <v>692</v>
       </c>
@@ -15466,7 +15467,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
         <v>692</v>
       </c>
@@ -15483,7 +15484,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
         <v>692</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
         <v>692</v>
       </c>
@@ -15517,7 +15518,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
         <v>692</v>
       </c>
@@ -15534,7 +15535,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
         <v>692</v>
       </c>
@@ -15551,7 +15552,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
         <v>692</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
         <v>692</v>
       </c>
@@ -15585,7 +15586,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
         <v>692</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
         <v>692</v>
       </c>
@@ -15619,7 +15620,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
         <v>692</v>
       </c>
@@ -15636,7 +15637,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
         <v>692</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
         <v>692</v>
       </c>
@@ -15670,7 +15671,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
         <v>692</v>
       </c>
@@ -15687,7 +15688,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
         <v>692</v>
       </c>
@@ -15704,7 +15705,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="3" t="s">
         <v>692</v>
       </c>
@@ -15721,7 +15722,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
         <v>692</v>
       </c>
@@ -15738,7 +15739,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
         <v>692</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
         <v>692</v>
       </c>
@@ -15772,7 +15773,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="3" t="s">
         <v>692</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
         <v>692</v>
       </c>
@@ -15806,7 +15807,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="3" t="s">
         <v>692</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
         <v>692</v>
       </c>
@@ -15840,7 +15841,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
         <v>692</v>
       </c>
@@ -15857,7 +15858,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
         <v>692</v>
       </c>
@@ -15874,7 +15875,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
         <v>692</v>
       </c>
@@ -15891,7 +15892,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
         <v>692</v>
       </c>
@@ -15908,7 +15909,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
         <v>692</v>
       </c>
@@ -15925,7 +15926,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
         <v>692</v>
       </c>
@@ -15942,7 +15943,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
         <v>692</v>
       </c>
@@ -15959,7 +15960,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
         <v>692</v>
       </c>
@@ -15976,7 +15977,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="3" t="s">
         <v>692</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
         <v>692</v>
       </c>
@@ -16010,7 +16011,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
         <v>692</v>
       </c>
@@ -16027,7 +16028,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
         <v>692</v>
       </c>
@@ -16044,7 +16045,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
         <v>692</v>
       </c>
@@ -16061,7 +16062,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="3" t="s">
         <v>692</v>
       </c>
@@ -16078,7 +16079,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
         <v>692</v>
       </c>
@@ -16095,7 +16096,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
         <v>692</v>
       </c>
@@ -16112,7 +16113,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
         <v>692</v>
       </c>
@@ -16129,7 +16130,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
         <v>692</v>
       </c>
@@ -16146,7 +16147,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
         <v>692</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
         <v>692</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
         <v>692</v>
       </c>
@@ -16197,7 +16198,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
         <v>692</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
         <v>692</v>
       </c>
@@ -16231,7 +16232,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
         <v>692</v>
       </c>
@@ -16248,7 +16249,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
         <v>692</v>
       </c>
@@ -16265,7 +16266,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
         <v>692</v>
       </c>
@@ -16282,7 +16283,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
         <v>692</v>
       </c>
@@ -16299,7 +16300,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
         <v>692</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
         <v>692</v>
       </c>
@@ -16333,7 +16334,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
         <v>692</v>
       </c>
@@ -16350,7 +16351,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
         <v>692</v>
       </c>
@@ -16367,7 +16368,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
         <v>692</v>
       </c>
@@ -16385,7 +16386,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E677" xr:uid="{A0BC8F1E-B5AB-4A0D-ACFD-80E3AFA8F114}"/>
+  <autoFilter ref="A1:E677" xr:uid="{A0BC8F1E-B5AB-4A0D-ACFD-80E3AFA8F114}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="007"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/regionmapping.xlsx
+++ b/regionmapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{B6DEC185-5CD9-4F71-A619-2DAED122682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484155E6-DFAA-4BE1-9362-4D3F319654D3}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{B6DEC185-5CD9-4F71-A619-2DAED122682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F240A3E1-6C04-4553-A031-4EB14D07C847}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98727762-88CB-48CE-8D34-1B4D104E64B4}"/>
   </bookViews>
@@ -4861,11 +4861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BC8F1E-B5AB-4A0D-ACFD-80E3AFA8F114}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4893,7 +4892,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4961,7 +4960,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -5522,7 +5521,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -5539,7 +5538,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -5556,7 +5555,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -5658,7 +5657,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
@@ -6015,7 +6014,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>4</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
@@ -6100,7 +6099,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>4</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>4</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>4</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>4</v>
       </c>
@@ -6219,7 +6218,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>4</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6287,7 +6286,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>4</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
@@ -6372,7 +6371,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>4</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6423,7 +6422,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>4</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>4</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>4</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>4</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>4</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
@@ -6542,7 +6541,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6576,7 +6575,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>4</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>4</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>4</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>4</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>4</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>4</v>
       </c>
@@ -6746,7 +6745,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>4</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>4</v>
       </c>
@@ -6780,7 +6779,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>4</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>4</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>4</v>
       </c>
@@ -6848,7 +6847,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>4</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>4</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>4</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>4</v>
       </c>
@@ -6916,7 +6915,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>4</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>4</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>4</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>4</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>4</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>4</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>4</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>4</v>
       </c>
@@ -7086,7 +7085,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>4</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>4</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>4</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>4</v>
       </c>
@@ -7154,7 +7153,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>4</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>4</v>
       </c>
@@ -7205,7 +7204,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>4</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>4</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>4</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>4</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>4</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>4</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>4</v>
       </c>
@@ -7324,7 +7323,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>4</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>4</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>4</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>4</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>4</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>690</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>690</v>
       </c>
@@ -7460,7 +7459,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>690</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>690</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>690</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>690</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>690</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>690</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>690</v>
       </c>
@@ -7579,7 +7578,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>690</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>690</v>
       </c>
@@ -7613,7 +7612,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>690</v>
       </c>
@@ -7630,7 +7629,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>690</v>
       </c>
@@ -7647,7 +7646,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>690</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>690</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>690</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>690</v>
       </c>
@@ -7715,7 +7714,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>690</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>690</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>690</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>690</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>690</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>690</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>690</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>690</v>
       </c>
@@ -7851,7 +7850,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>690</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>690</v>
       </c>
@@ -7885,7 +7884,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>690</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>690</v>
       </c>
@@ -7919,7 +7918,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>690</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>690</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>690</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>690</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>690</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>690</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>690</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>690</v>
       </c>
@@ -8055,7 +8054,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>690</v>
       </c>
@@ -8072,7 +8071,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>690</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>690</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>690</v>
       </c>
@@ -8123,7 +8122,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>690</v>
       </c>
@@ -8140,7 +8139,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>690</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>690</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>690</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>690</v>
       </c>
@@ -8208,7 +8207,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>690</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>690</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>690</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>690</v>
       </c>
@@ -8276,7 +8275,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>690</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>690</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>690</v>
       </c>
@@ -8327,7 +8326,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>690</v>
       </c>
@@ -8344,7 +8343,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>690</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>690</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>690</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>690</v>
       </c>
@@ -8412,7 +8411,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>690</v>
       </c>
@@ -8429,7 +8428,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>690</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>690</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>690</v>
       </c>
@@ -8480,7 +8479,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>690</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>690</v>
       </c>
@@ -8514,7 +8513,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>690</v>
       </c>
@@ -8531,7 +8530,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>690</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>690</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>690</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>690</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>690</v>
       </c>
@@ -8616,7 +8615,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>690</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>690</v>
       </c>
@@ -8650,7 +8649,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>690</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>690</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>690</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>690</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>690</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>690</v>
       </c>
@@ -8752,7 +8751,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>690</v>
       </c>
@@ -8769,7 +8768,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>690</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>690</v>
       </c>
@@ -8803,7 +8802,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>690</v>
       </c>
@@ -8820,7 +8819,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>690</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>690</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>690</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>690</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>690</v>
       </c>
@@ -8905,7 +8904,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>690</v>
       </c>
@@ -8922,7 +8921,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>690</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>690</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>690</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>690</v>
       </c>
@@ -8990,7 +8989,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>690</v>
       </c>
@@ -9007,7 +9006,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>690</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>690</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>690</v>
       </c>
@@ -9058,7 +9057,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>690</v>
       </c>
@@ -9075,7 +9074,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>690</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>690</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>690</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>690</v>
       </c>
@@ -9143,7 +9142,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>690</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>690</v>
       </c>
@@ -9177,7 +9176,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>690</v>
       </c>
@@ -9194,7 +9193,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>690</v>
       </c>
@@ -9211,7 +9210,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>690</v>
       </c>
@@ -9228,7 +9227,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>690</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>690</v>
       </c>
@@ -9262,7 +9261,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>690</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>690</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>690</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>690</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>690</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>690</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>690</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>690</v>
       </c>
@@ -9398,7 +9397,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>690</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>690</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>690</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>690</v>
       </c>
@@ -9466,7 +9465,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>690</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>690</v>
       </c>
@@ -9500,7 +9499,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>690</v>
       </c>
@@ -9517,7 +9516,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>690</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>690</v>
       </c>
@@ -9551,7 +9550,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>690</v>
       </c>
@@ -9568,7 +9567,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>690</v>
       </c>
@@ -9585,7 +9584,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>690</v>
       </c>
@@ -9602,7 +9601,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>690</v>
       </c>
@@ -9619,7 +9618,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>690</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>690</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>690</v>
       </c>
@@ -9670,7 +9669,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>690</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>690</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>690</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>690</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>690</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>690</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>690</v>
       </c>
@@ -9789,7 +9788,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>690</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>690</v>
       </c>
@@ -9823,7 +9822,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>690</v>
       </c>
@@ -9840,7 +9839,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>690</v>
       </c>
@@ -9857,7 +9856,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>690</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>690</v>
       </c>
@@ -9891,7 +9890,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>690</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>690</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>690</v>
       </c>
@@ -9942,7 +9941,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>690</v>
       </c>
@@ -9959,7 +9958,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>690</v>
       </c>
@@ -9976,7 +9975,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>690</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>690</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>690</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>690</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>690</v>
       </c>
@@ -10061,7 +10060,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>690</v>
       </c>
@@ -10078,7 +10077,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>690</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>690</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>690</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>690</v>
       </c>
@@ -10146,7 +10145,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>690</v>
       </c>
@@ -10163,7 +10162,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>690</v>
       </c>
@@ -10180,7 +10179,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>690</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>690</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>690</v>
       </c>
@@ -10231,7 +10230,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>690</v>
       </c>
@@ -10248,7 +10247,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>690</v>
       </c>
@@ -10265,7 +10264,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>690</v>
       </c>
@@ -10282,7 +10281,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>690</v>
       </c>
@@ -10299,7 +10298,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>691</v>
       </c>
@@ -10316,7 +10315,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>691</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>691</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>691</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>691</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>691</v>
       </c>
@@ -10401,7 +10400,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>691</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>691</v>
       </c>
@@ -10435,7 +10434,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>691</v>
       </c>
@@ -10452,7 +10451,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>691</v>
       </c>
@@ -10469,7 +10468,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>691</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>691</v>
       </c>
@@ -10503,7 +10502,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>691</v>
       </c>
@@ -10520,7 +10519,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>691</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>691</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>691</v>
       </c>
@@ -10571,7 +10570,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>691</v>
       </c>
@@ -10588,7 +10587,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>691</v>
       </c>
@@ -10605,7 +10604,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>691</v>
       </c>
@@ -10622,7 +10621,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>691</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>691</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>691</v>
       </c>
@@ -10673,7 +10672,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>691</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>691</v>
       </c>
@@ -10707,7 +10706,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>691</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>691</v>
       </c>
@@ -10741,7 +10740,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>691</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>691</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>691</v>
       </c>
@@ -10792,7 +10791,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>691</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>691</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>691</v>
       </c>
@@ -10843,7 +10842,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>691</v>
       </c>
@@ -10860,7 +10859,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>691</v>
       </c>
@@ -10877,7 +10876,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>691</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>691</v>
       </c>
@@ -10911,7 +10910,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>691</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>691</v>
       </c>
@@ -10945,7 +10944,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>691</v>
       </c>
@@ -10962,7 +10961,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>691</v>
       </c>
@@ -10979,7 +10978,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>691</v>
       </c>
@@ -10996,7 +10995,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>691</v>
       </c>
@@ -11013,7 +11012,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>691</v>
       </c>
@@ -11030,7 +11029,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>691</v>
       </c>
@@ -11047,7 +11046,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>691</v>
       </c>
@@ -11064,7 +11063,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>691</v>
       </c>
@@ -11081,7 +11080,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>691</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>691</v>
       </c>
@@ -11115,7 +11114,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>691</v>
       </c>
@@ -11132,7 +11131,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>691</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>691</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>691</v>
       </c>
@@ -11183,7 +11182,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>691</v>
       </c>
@@ -11200,7 +11199,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>691</v>
       </c>
@@ -11217,7 +11216,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>691</v>
       </c>
@@ -11234,7 +11233,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>691</v>
       </c>
@@ -11251,7 +11250,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -11268,7 +11267,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>691</v>
       </c>
@@ -11285,7 +11284,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>691</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>691</v>
       </c>
@@ -11319,7 +11318,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>691</v>
       </c>
@@ -11336,7 +11335,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>691</v>
       </c>
@@ -11353,7 +11352,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>691</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>691</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>691</v>
       </c>
@@ -11404,7 +11403,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>691</v>
       </c>
@@ -11421,7 +11420,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>691</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>691</v>
       </c>
@@ -11455,7 +11454,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>691</v>
       </c>
@@ -11472,7 +11471,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>691</v>
       </c>
@@ -11489,7 +11488,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>691</v>
       </c>
@@ -11506,7 +11505,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>691</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>691</v>
       </c>
@@ -11540,7 +11539,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>691</v>
       </c>
@@ -11557,7 +11556,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>691</v>
       </c>
@@ -11574,7 +11573,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>691</v>
       </c>
@@ -11591,7 +11590,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>691</v>
       </c>
@@ -11608,7 +11607,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>691</v>
       </c>
@@ -11625,7 +11624,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>691</v>
       </c>
@@ -11642,7 +11641,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>691</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>691</v>
       </c>
@@ -11676,7 +11675,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>691</v>
       </c>
@@ -11693,7 +11692,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>691</v>
       </c>
@@ -11710,7 +11709,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>691</v>
       </c>
@@ -11727,7 +11726,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>691</v>
       </c>
@@ -11744,7 +11743,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>691</v>
       </c>
@@ -11761,7 +11760,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>691</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>691</v>
       </c>
@@ -11795,7 +11794,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>691</v>
       </c>
@@ -11812,7 +11811,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>691</v>
       </c>
@@ -11829,7 +11828,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>691</v>
       </c>
@@ -11846,7 +11845,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>691</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>691</v>
       </c>
@@ -11880,7 +11879,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>691</v>
       </c>
@@ -11897,7 +11896,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>691</v>
       </c>
@@ -11914,7 +11913,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>691</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>691</v>
       </c>
@@ -11948,7 +11947,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>691</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>691</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>691</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>691</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>691</v>
       </c>
@@ -12033,7 +12032,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>691</v>
       </c>
@@ -12050,7 +12049,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>691</v>
       </c>
@@ -12067,7 +12066,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>691</v>
       </c>
@@ -12084,7 +12083,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>691</v>
       </c>
@@ -12101,7 +12100,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>691</v>
       </c>
@@ -12118,7 +12117,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>691</v>
       </c>
@@ -12135,7 +12134,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>691</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>691</v>
       </c>
@@ -12169,7 +12168,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>691</v>
       </c>
@@ -12186,7 +12185,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
         <v>691</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>691</v>
       </c>
@@ -12220,7 +12219,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>691</v>
       </c>
@@ -12237,7 +12236,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>691</v>
       </c>
@@ -12254,7 +12253,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>691</v>
       </c>
@@ -12271,7 +12270,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>691</v>
       </c>
@@ -12288,7 +12287,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>691</v>
       </c>
@@ -12305,7 +12304,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>691</v>
       </c>
@@ -12322,7 +12321,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>691</v>
       </c>
@@ -12339,7 +12338,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>691</v>
       </c>
@@ -12356,7 +12355,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>691</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>691</v>
       </c>
@@ -12390,7 +12389,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>691</v>
       </c>
@@ -12407,7 +12406,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>691</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>691</v>
       </c>
@@ -12441,7 +12440,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>691</v>
       </c>
@@ -12458,7 +12457,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>691</v>
       </c>
@@ -12475,7 +12474,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>691</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>691</v>
       </c>
@@ -12509,7 +12508,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
         <v>691</v>
       </c>
@@ -12526,7 +12525,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>691</v>
       </c>
@@ -12543,7 +12542,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>691</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>691</v>
       </c>
@@ -12577,7 +12576,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>691</v>
       </c>
@@ -12594,7 +12593,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>691</v>
       </c>
@@ -12611,7 +12610,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>691</v>
       </c>
@@ -12628,7 +12627,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>691</v>
       </c>
@@ -12645,7 +12644,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>691</v>
       </c>
@@ -12662,7 +12661,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>691</v>
       </c>
@@ -12679,7 +12678,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>691</v>
       </c>
@@ -12696,7 +12695,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>691</v>
       </c>
@@ -12713,7 +12712,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>691</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
         <v>691</v>
       </c>
@@ -12747,7 +12746,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
         <v>691</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
         <v>691</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
         <v>691</v>
       </c>
@@ -12798,7 +12797,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
         <v>691</v>
       </c>
@@ -12815,7 +12814,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
         <v>691</v>
       </c>
@@ -12832,7 +12831,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
         <v>691</v>
       </c>
@@ -12849,7 +12848,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
         <v>691</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
         <v>691</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>691</v>
       </c>
@@ -12900,7 +12899,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
         <v>691</v>
       </c>
@@ -12917,7 +12916,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
         <v>691</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
         <v>691</v>
       </c>
@@ -12951,7 +12950,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>691</v>
       </c>
@@ -12968,7 +12967,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
         <v>691</v>
       </c>
@@ -12985,7 +12984,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>691</v>
       </c>
@@ -13002,7 +13001,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
         <v>691</v>
       </c>
@@ -13019,7 +13018,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
         <v>691</v>
       </c>
@@ -13036,7 +13035,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>691</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>691</v>
       </c>
@@ -13070,7 +13069,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>691</v>
       </c>
@@ -13087,7 +13086,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>691</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>691</v>
       </c>
@@ -13121,7 +13120,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
         <v>691</v>
       </c>
@@ -13138,7 +13137,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>691</v>
       </c>
@@ -13155,7 +13154,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>691</v>
       </c>
@@ -13172,7 +13171,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>691</v>
       </c>
@@ -13189,7 +13188,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>691</v>
       </c>
@@ -13206,7 +13205,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>691</v>
       </c>
@@ -13223,7 +13222,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>691</v>
       </c>
@@ -13240,7 +13239,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
         <v>691</v>
       </c>
@@ -13257,7 +13256,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
         <v>691</v>
       </c>
@@ -13274,7 +13273,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
         <v>691</v>
       </c>
@@ -13291,7 +13290,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>691</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>691</v>
       </c>
@@ -13325,7 +13324,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>691</v>
       </c>
@@ -13342,7 +13341,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>691</v>
       </c>
@@ -13359,7 +13358,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>691</v>
       </c>
@@ -13376,7 +13375,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>691</v>
       </c>
@@ -13393,7 +13392,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>691</v>
       </c>
@@ -13410,7 +13409,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>692</v>
       </c>
@@ -13427,7 +13426,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>692</v>
       </c>
@@ -13444,7 +13443,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
         <v>692</v>
       </c>
@@ -13461,7 +13460,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>692</v>
       </c>
@@ -13478,7 +13477,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
         <v>692</v>
       </c>
@@ -13495,7 +13494,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
         <v>692</v>
       </c>
@@ -13512,7 +13511,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
         <v>692</v>
       </c>
@@ -13529,7 +13528,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
         <v>692</v>
       </c>
@@ -13546,7 +13545,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
         <v>692</v>
       </c>
@@ -13563,7 +13562,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
         <v>692</v>
       </c>
@@ -13580,7 +13579,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
         <v>692</v>
       </c>
@@ -13597,7 +13596,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
         <v>692</v>
       </c>
@@ -13614,7 +13613,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
         <v>692</v>
       </c>
@@ -13631,7 +13630,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
         <v>692</v>
       </c>
@@ -13648,7 +13647,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
         <v>692</v>
       </c>
@@ -13665,7 +13664,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
         <v>692</v>
       </c>
@@ -13682,7 +13681,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
         <v>692</v>
       </c>
@@ -13699,7 +13698,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
         <v>692</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
         <v>692</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
         <v>692</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
         <v>692</v>
       </c>
@@ -13767,7 +13766,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
         <v>692</v>
       </c>
@@ -13784,7 +13783,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
         <v>692</v>
       </c>
@@ -13801,7 +13800,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
         <v>692</v>
       </c>
@@ -13818,7 +13817,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
         <v>692</v>
       </c>
@@ -13835,7 +13834,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
         <v>692</v>
       </c>
@@ -13852,7 +13851,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
         <v>692</v>
       </c>
@@ -13869,7 +13868,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
         <v>692</v>
       </c>
@@ -13886,7 +13885,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
         <v>692</v>
       </c>
@@ -13903,7 +13902,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
         <v>692</v>
       </c>
@@ -13920,7 +13919,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
         <v>692</v>
       </c>
@@ -13937,7 +13936,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
         <v>692</v>
       </c>
@@ -13954,7 +13953,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
         <v>692</v>
       </c>
@@ -13971,7 +13970,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
         <v>692</v>
       </c>
@@ -13988,7 +13987,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
         <v>692</v>
       </c>
@@ -14005,7 +14004,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
         <v>692</v>
       </c>
@@ -14022,7 +14021,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
         <v>692</v>
       </c>
@@ -14039,7 +14038,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
         <v>692</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
         <v>692</v>
       </c>
@@ -14073,7 +14072,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
         <v>692</v>
       </c>
@@ -14090,7 +14089,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
         <v>692</v>
       </c>
@@ -14107,7 +14106,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
         <v>692</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
         <v>692</v>
       </c>
@@ -14141,7 +14140,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
         <v>692</v>
       </c>
@@ -14158,7 +14157,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
         <v>692</v>
       </c>
@@ -14175,7 +14174,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
         <v>692</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
         <v>692</v>
       </c>
@@ -14209,7 +14208,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
         <v>692</v>
       </c>
@@ -14226,7 +14225,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
         <v>692</v>
       </c>
@@ -14243,7 +14242,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
         <v>692</v>
       </c>
@@ -14260,7 +14259,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
         <v>692</v>
       </c>
@@ -14277,7 +14276,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
         <v>692</v>
       </c>
@@ -14294,7 +14293,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
         <v>692</v>
       </c>
@@ -14311,7 +14310,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="3" t="s">
         <v>692</v>
       </c>
@@ -14328,7 +14327,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
         <v>692</v>
       </c>
@@ -14345,7 +14344,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
         <v>692</v>
       </c>
@@ -14362,7 +14361,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
         <v>692</v>
       </c>
@@ -14379,7 +14378,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
         <v>692</v>
       </c>
@@ -14396,7 +14395,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
         <v>692</v>
       </c>
@@ -14413,7 +14412,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
         <v>692</v>
       </c>
@@ -14430,7 +14429,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
         <v>692</v>
       </c>
@@ -14447,7 +14446,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
         <v>692</v>
       </c>
@@ -14464,7 +14463,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
         <v>692</v>
       </c>
@@ -14481,7 +14480,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
         <v>692</v>
       </c>
@@ -14498,7 +14497,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
         <v>692</v>
       </c>
@@ -14515,7 +14514,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
         <v>692</v>
       </c>
@@ -14532,7 +14531,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
         <v>692</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="3" t="s">
         <v>692</v>
       </c>
@@ -14566,7 +14565,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
         <v>692</v>
       </c>
@@ -14583,7 +14582,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="3" t="s">
         <v>692</v>
       </c>
@@ -14600,7 +14599,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
         <v>692</v>
       </c>
@@ -14617,7 +14616,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="3" t="s">
         <v>692</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
         <v>692</v>
       </c>
@@ -14651,7 +14650,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="3" t="s">
         <v>692</v>
       </c>
@@ -14668,7 +14667,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
         <v>692</v>
       </c>
@@ -14685,7 +14684,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
         <v>692</v>
       </c>
@@ -14702,7 +14701,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
         <v>692</v>
       </c>
@@ -14719,7 +14718,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="3" t="s">
         <v>692</v>
       </c>
@@ -14736,7 +14735,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
         <v>692</v>
       </c>
@@ -14753,7 +14752,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="3" t="s">
         <v>692</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
         <v>692</v>
       </c>
@@ -14787,7 +14786,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="3" t="s">
         <v>692</v>
       </c>
@@ -14804,7 +14803,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
         <v>692</v>
       </c>
@@ -14821,7 +14820,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="3" t="s">
         <v>692</v>
       </c>
@@ -14838,7 +14837,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
         <v>692</v>
       </c>
@@ -14855,7 +14854,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="3" t="s">
         <v>692</v>
       </c>
@@ -14872,7 +14871,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
         <v>692</v>
       </c>
@@ -14889,7 +14888,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="3" t="s">
         <v>692</v>
       </c>
@@ -14906,7 +14905,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
         <v>692</v>
       </c>
@@ -14923,7 +14922,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="3" t="s">
         <v>692</v>
       </c>
@@ -14940,7 +14939,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
         <v>692</v>
       </c>
@@ -14957,7 +14956,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
         <v>692</v>
       </c>
@@ -14974,7 +14973,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
         <v>692</v>
       </c>
@@ -14991,7 +14990,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="3" t="s">
         <v>692</v>
       </c>
@@ -15008,7 +15007,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
         <v>692</v>
       </c>
@@ -15025,7 +15024,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
         <v>692</v>
       </c>
@@ -15042,7 +15041,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
         <v>692</v>
       </c>
@@ -15059,7 +15058,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
         <v>692</v>
       </c>
@@ -15076,7 +15075,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
         <v>692</v>
       </c>
@@ -15093,7 +15092,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="3" t="s">
         <v>692</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
         <v>692</v>
       </c>
@@ -15127,7 +15126,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="3" t="s">
         <v>692</v>
       </c>
@@ -15144,7 +15143,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
         <v>692</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
         <v>692</v>
       </c>
@@ -15178,7 +15177,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
         <v>692</v>
       </c>
@@ -15195,7 +15194,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="3" t="s">
         <v>692</v>
       </c>
@@ -15212,7 +15211,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
         <v>692</v>
       </c>
@@ -15229,7 +15228,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="3" t="s">
         <v>692</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
         <v>692</v>
       </c>
@@ -15263,7 +15262,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="3" t="s">
         <v>692</v>
       </c>
@@ -15280,7 +15279,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
         <v>692</v>
       </c>
@@ -15297,7 +15296,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="3" t="s">
         <v>692</v>
       </c>
@@ -15314,7 +15313,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
         <v>692</v>
       </c>
@@ -15331,7 +15330,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="3" t="s">
         <v>692</v>
       </c>
@@ -15348,7 +15347,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
         <v>692</v>
       </c>
@@ -15365,7 +15364,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
         <v>692</v>
       </c>
@@ -15382,7 +15381,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
         <v>692</v>
       </c>
@@ -15399,7 +15398,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
         <v>692</v>
       </c>
@@ -15416,7 +15415,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
         <v>692</v>
       </c>
@@ -15433,7 +15432,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
         <v>692</v>
       </c>
@@ -15450,7 +15449,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
         <v>692</v>
       </c>
@@ -15467,7 +15466,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
         <v>692</v>
       </c>
@@ -15484,7 +15483,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
         <v>692</v>
       </c>
@@ -15501,7 +15500,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
         <v>692</v>
       </c>
@@ -15518,7 +15517,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
         <v>692</v>
       </c>
@@ -15535,7 +15534,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
         <v>692</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
         <v>692</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
         <v>692</v>
       </c>
@@ -15586,7 +15585,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
         <v>692</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
         <v>692</v>
       </c>
@@ -15620,7 +15619,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
         <v>692</v>
       </c>
@@ -15637,7 +15636,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
         <v>692</v>
       </c>
@@ -15654,7 +15653,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
         <v>692</v>
       </c>
@@ -15671,7 +15670,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
         <v>692</v>
       </c>
@@ -15688,7 +15687,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
         <v>692</v>
       </c>
@@ -15705,7 +15704,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="3" t="s">
         <v>692</v>
       </c>
@@ -15722,7 +15721,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
         <v>692</v>
       </c>
@@ -15739,7 +15738,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
         <v>692</v>
       </c>
@@ -15756,7 +15755,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
         <v>692</v>
       </c>
@@ -15773,7 +15772,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="3" t="s">
         <v>692</v>
       </c>
@@ -15790,7 +15789,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
         <v>692</v>
       </c>
@@ -15807,7 +15806,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="3" t="s">
         <v>692</v>
       </c>
@@ -15824,7 +15823,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
         <v>692</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
         <v>692</v>
       </c>
@@ -15858,7 +15857,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
         <v>692</v>
       </c>
@@ -15875,7 +15874,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
         <v>692</v>
       </c>
@@ -15892,7 +15891,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
         <v>692</v>
       </c>
@@ -15909,7 +15908,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
         <v>692</v>
       </c>
@@ -15926,7 +15925,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
         <v>692</v>
       </c>
@@ -15943,7 +15942,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
         <v>692</v>
       </c>
@@ -15960,7 +15959,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
         <v>692</v>
       </c>
@@ -15977,7 +15976,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="3" t="s">
         <v>692</v>
       </c>
@@ -15994,7 +15993,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
         <v>692</v>
       </c>
@@ -16011,7 +16010,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
         <v>692</v>
       </c>
@@ -16028,7 +16027,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
         <v>692</v>
       </c>
@@ -16045,7 +16044,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
         <v>692</v>
       </c>
@@ -16062,7 +16061,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="3" t="s">
         <v>692</v>
       </c>
@@ -16079,7 +16078,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
         <v>692</v>
       </c>
@@ -16096,7 +16095,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
         <v>692</v>
       </c>
@@ -16113,7 +16112,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
         <v>692</v>
       </c>
@@ -16130,7 +16129,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
         <v>692</v>
       </c>
@@ -16147,7 +16146,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
         <v>692</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
         <v>692</v>
       </c>
@@ -16181,7 +16180,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
         <v>692</v>
       </c>
@@ -16198,7 +16197,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
         <v>692</v>
       </c>
@@ -16215,7 +16214,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
         <v>692</v>
       </c>
@@ -16232,7 +16231,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
         <v>692</v>
       </c>
@@ -16249,7 +16248,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
         <v>692</v>
       </c>
@@ -16266,7 +16265,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
         <v>692</v>
       </c>
@@ -16283,7 +16282,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
         <v>692</v>
       </c>
@@ -16300,7 +16299,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
         <v>692</v>
       </c>
@@ -16317,7 +16316,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
         <v>692</v>
       </c>
@@ -16334,7 +16333,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
         <v>692</v>
       </c>
@@ -16351,7 +16350,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
         <v>692</v>
       </c>
@@ -16368,7 +16367,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
         <v>692</v>
       </c>
@@ -16386,13 +16385,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E677" xr:uid="{A0BC8F1E-B5AB-4A0D-ACFD-80E3AFA8F114}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="007"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E677" xr:uid="{A0BC8F1E-B5AB-4A0D-ACFD-80E3AFA8F114}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/regionmapping.xlsx
+++ b/regionmapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{768DBE26-FC7C-4309-B178-49D8B4B62097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{617B6A1C-8692-46A9-9024-1FA7B6CC044D}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{768DBE26-FC7C-4309-B178-49D8B4B62097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566DA191-2040-4679-9A9B-CA1C24E109A0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13265E40-8527-45C5-AAA2-ED7961B405B8}"/>
   </bookViews>
@@ -4848,15 +4848,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628FB668-955F-451D-AA89-12A38E2E8A80}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:E678"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="63" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H7" sqref="H7"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D684" sqref="D684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4885,7 +4885,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>679</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>679</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>679</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>679</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>679</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>679</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>679</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>679</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>679</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>679</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>679</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>679</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>679</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>679</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>679</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>679</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>679</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>679</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>679</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>679</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>679</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>679</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>679</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>679</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>679</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>679</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>679</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>679</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>679</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>679</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>679</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>679</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>679</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>679</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>679</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>679</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>679</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>679</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>679</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>679</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>679</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>679</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>679</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>679</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>679</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>679</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>679</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>679</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>679</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>679</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>679</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>679</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>679</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>679</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>679</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>679</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>679</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>679</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>679</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>679</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>679</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>679</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>679</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>679</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>679</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>679</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>679</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>679</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>679</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>679</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>679</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>679</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>679</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>679</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>679</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>679</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>679</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>679</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>679</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>679</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>679</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>679</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>679</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>679</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>679</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>679</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>679</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>679</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>679</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>679</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>679</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>679</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>679</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>679</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>679</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>679</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>679</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>679</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>679</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>679</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>679</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>679</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>679</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>679</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>679</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>679</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>679</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>679</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>679</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>679</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>679</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>679</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>679</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>679</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>679</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>679</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>679</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>679</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>679</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>679</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>679</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>679</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>679</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>679</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>679</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>679</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>679</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>679</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>679</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>679</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>679</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>679</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>679</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>679</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>679</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>679</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>679</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>679</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>679</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>679</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>679</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>679</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>679</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>679</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>679</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>679</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>679</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>679</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>690</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>690</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>690</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>690</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>690</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>690</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>690</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>690</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>690</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>690</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>690</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>690</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>690</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>690</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>690</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>690</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>690</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>690</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>690</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>690</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>690</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>690</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>690</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>690</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>690</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>690</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>690</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>690</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>690</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>690</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>690</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>690</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>690</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>690</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>690</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>690</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>690</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>690</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>690</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>690</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>690</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>690</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>690</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>690</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>690</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>690</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>690</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>690</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>690</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>690</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>690</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>690</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>690</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>690</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>690</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>690</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>690</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>690</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>690</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>690</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>690</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>690</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>690</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>690</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>690</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>690</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>690</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>690</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>690</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>690</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>690</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>690</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>690</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>690</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>690</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>690</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>690</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>690</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>690</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>690</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>690</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>690</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>690</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>690</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>690</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>690</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>690</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>690</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>690</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>690</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>690</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>690</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>690</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>690</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>690</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>690</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>690</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>690</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>690</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>690</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>690</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>690</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>690</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>690</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>690</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>690</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>690</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>690</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>690</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>690</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>690</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>690</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>690</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>690</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>690</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>690</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>690</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>690</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>690</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>690</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>690</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>690</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>690</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>690</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>690</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>690</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>690</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>690</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>690</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>690</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>690</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>690</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>690</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>690</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>690</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>690</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>690</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>690</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>690</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>690</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>690</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>690</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>690</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>690</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>690</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>690</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>690</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>690</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>690</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>690</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>690</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>690</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>690</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>690</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>690</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>690</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>690</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>690</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>690</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>690</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>690</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>690</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>690</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>690</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>690</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>690</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>690</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>690</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>690</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>700</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>700</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>700</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>700</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>700</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>700</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>700</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>700</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>700</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>700</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>700</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>700</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>700</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>700</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>700</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>700</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>700</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>700</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>700</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>700</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>700</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>700</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>700</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>700</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>700</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>700</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>700</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>700</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>700</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>700</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>700</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>700</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>700</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>700</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>700</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>700</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>700</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>700</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>700</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>700</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>700</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>700</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>700</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>700</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>700</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>700</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>700</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>700</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>700</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>700</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>700</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>700</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>700</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>700</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>700</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>700</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>700</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>700</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>700</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>700</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>700</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>700</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>700</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>700</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>700</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>700</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>700</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>700</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>700</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>700</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>700</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>700</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>700</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>700</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>700</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>700</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>700</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>700</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>700</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>700</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>700</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>700</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>700</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>700</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>700</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>700</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>700</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>700</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>700</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>700</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>700</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>700</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>700</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>700</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>700</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>700</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>700</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>700</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>700</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>700</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>700</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>700</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>700</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>700</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>700</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>700</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>700</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>700</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>700</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>700</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>700</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>700</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>700</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>700</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>700</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>700</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>700</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>700</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>700</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>700</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>700</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>700</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>700</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>700</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>700</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>700</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>700</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>700</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>700</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>700</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>700</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>700</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>700</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>700</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>700</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>700</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>700</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>700</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>700</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>700</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>700</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>700</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>700</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>700</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>700</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>700</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>700</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>700</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>700</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>700</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>700</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>700</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>700</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>700</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>700</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>700</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>700</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>700</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>700</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>700</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>700</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>700</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>700</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>700</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>700</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>700</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>700</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>700</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>700</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>700</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>700</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>700</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>700</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>700</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>700</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>700</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>700</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>700</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>700</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>700</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>700</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>700</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>700</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>700</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>711</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>711</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>711</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>711</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>711</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>711</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>711</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>711</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>711</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>711</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>711</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>711</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>711</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>711</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>711</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>711</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>711</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>711</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>711</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>711</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>711</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>711</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>711</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>711</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>711</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>711</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>711</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>711</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>711</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>711</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>711</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>711</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>711</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>711</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>711</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>711</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>711</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>711</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>711</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>711</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>711</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>711</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>711</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>711</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>711</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>711</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>711</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>711</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>711</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>711</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>711</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>711</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>711</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>711</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>711</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>711</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>711</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>711</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>711</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>711</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>711</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>711</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>711</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>711</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>711</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>711</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>711</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>711</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>711</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>711</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>711</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>711</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>711</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>711</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>711</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>711</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>711</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>711</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>711</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>711</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>711</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>711</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>711</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>711</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>711</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>711</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>711</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>711</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>711</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>711</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>711</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>711</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>711</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>711</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>711</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>711</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>711</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>711</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>711</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>711</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>711</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>711</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>711</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>711</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>711</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>711</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>711</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>711</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>711</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>711</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>711</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>711</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>711</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>711</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>711</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>711</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>711</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>711</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>711</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>711</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>711</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>711</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>711</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>711</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>711</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>711</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>711</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>711</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>711</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>711</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>711</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>711</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>711</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>711</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>711</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>711</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>711</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>711</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>711</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>711</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>711</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>711</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>711</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>711</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>711</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>711</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>711</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>711</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>711</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>711</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>711</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>711</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>711</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>711</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>711</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>711</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>711</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>711</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>711</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>711</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>711</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>711</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>711</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>711</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>711</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>711</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>711</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>711</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>711</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>711</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>711</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>711</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>711</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>711</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>711</v>
       </c>
@@ -16395,7 +16395,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E678" xr:uid="{628FB668-955F-451D-AA89-12A38E2E8A80}"/>
+  <autoFilter ref="A1:E678" xr:uid="{628FB668-955F-451D-AA89-12A38E2E8A80}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="B97"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/regionmapping.xlsx
+++ b/regionmapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{768DBE26-FC7C-4309-B178-49D8B4B62097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566DA191-2040-4679-9A9B-CA1C24E109A0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{768DBE26-FC7C-4309-B178-49D8B4B62097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0207A763-2E41-4FF1-92EE-CB2A24CDE3A7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13265E40-8527-45C5-AAA2-ED7961B405B8}"/>
   </bookViews>
@@ -4848,7 +4848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628FB668-955F-451D-AA89-12A38E2E8A80}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:E678"/>
@@ -4856,7 +4856,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="63" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H7" sqref="H7"/>
-      <selection pane="bottomLeft" activeCell="D684" sqref="D684"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4885,7 +4885,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>679</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>679</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>679</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>679</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>679</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>679</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>679</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>679</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>679</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>679</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>679</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>679</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>679</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>679</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>679</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>679</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>679</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>679</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>679</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>679</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>679</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>679</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>679</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>679</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>679</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>679</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>679</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>679</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>679</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>679</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>679</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>679</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>679</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>679</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>679</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>679</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>679</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>679</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>679</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>679</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>679</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>679</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>679</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>679</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>679</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>679</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>679</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>679</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>679</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>679</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>679</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>679</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>679</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>679</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>679</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>679</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>679</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>679</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>679</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>679</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>679</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>679</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>679</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>679</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>679</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>679</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>679</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>679</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>679</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>679</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>679</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>679</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>679</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>679</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>679</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>679</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>679</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>679</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>679</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>679</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>679</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>679</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>679</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>679</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>679</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>679</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>679</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>679</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>679</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>679</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>679</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>679</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>679</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>679</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>679</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>679</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>679</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>679</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>679</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>679</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>679</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>679</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>679</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>679</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>679</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>679</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>679</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>679</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>679</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>679</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>679</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>679</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>679</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>679</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>679</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>679</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>679</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>679</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>679</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>679</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>679</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>679</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>679</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>679</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>679</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>679</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>679</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>679</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>679</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>679</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>679</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>679</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>679</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>679</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>679</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>679</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>679</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>679</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>679</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>679</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>679</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>679</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>679</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>679</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>679</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>679</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>679</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>679</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>690</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>690</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>690</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>690</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>690</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>690</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>690</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>690</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>690</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>690</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>690</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>690</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>690</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>690</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>690</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>690</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>690</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>690</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>690</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>690</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>690</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>690</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>690</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>690</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>690</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>690</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>690</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>690</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>690</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>690</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>690</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>690</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>690</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>690</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>690</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>690</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>690</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>690</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>690</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>690</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>690</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>690</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>690</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>690</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>690</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>690</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>690</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>690</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>690</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>690</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>690</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>690</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>690</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>690</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>690</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>690</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>690</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>690</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>690</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>690</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>690</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>690</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>690</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>690</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>690</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>690</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>690</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>690</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>690</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>690</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>690</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>690</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>690</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>690</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>690</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>690</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>690</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>690</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>690</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>690</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>690</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>690</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>690</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>690</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>690</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>690</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>690</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>690</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>690</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>690</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>690</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>690</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>690</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>690</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>690</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>690</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>690</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>690</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>690</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>690</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>690</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>690</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>690</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>690</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>690</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>690</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>690</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>690</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>690</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>690</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>690</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>690</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>690</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>690</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>690</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>690</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>690</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>690</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>690</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>690</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>690</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>690</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>690</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>690</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>690</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>690</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>690</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>690</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>690</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>690</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>690</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>690</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>690</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>690</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>690</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>690</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>690</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>690</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>690</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>690</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>690</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>690</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>690</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>690</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>690</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>690</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>690</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>690</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>690</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>690</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>690</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>690</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>690</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>690</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>690</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>690</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>690</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>690</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>690</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>690</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>690</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>690</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>690</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>690</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>690</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>690</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>690</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>690</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>690</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>700</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>700</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>700</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>700</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>700</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>700</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>700</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>700</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>700</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>700</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>700</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>700</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>700</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>700</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>700</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>700</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>700</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>700</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>700</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>700</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>700</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>700</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>700</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>700</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>700</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>700</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>700</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>700</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>700</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>700</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>700</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>700</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>700</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>700</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>700</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>700</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>700</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>700</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>700</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>700</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>700</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>700</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>700</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>700</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>700</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>700</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>700</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>700</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>700</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>700</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>700</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>700</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>700</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>700</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>700</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>700</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>700</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>700</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>700</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>700</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>700</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>700</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>700</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>700</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>700</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>700</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>700</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>700</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>700</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>700</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>700</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>700</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>700</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>700</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>700</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>700</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>700</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>700</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>700</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>700</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>700</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>700</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>700</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>700</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>700</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>700</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>700</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>700</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>700</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>700</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>700</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>700</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>700</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>700</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>700</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>700</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>700</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>700</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>700</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>700</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>700</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>700</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>700</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>700</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>700</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>700</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>700</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>700</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>700</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>700</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>700</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>700</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>700</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>700</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>700</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>700</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>700</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>700</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>700</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>700</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>700</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>700</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>700</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>700</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>700</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>700</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>700</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>700</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>700</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>700</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>700</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>700</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>700</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>700</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>700</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>700</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>700</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>700</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>700</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>700</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>700</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>700</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>700</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>700</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>700</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>700</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>700</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>700</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>700</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>700</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>700</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>700</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>700</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>700</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>700</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>700</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>700</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>700</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>700</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>700</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>700</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>700</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>700</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>700</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>700</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>700</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>700</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>700</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>700</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>700</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>700</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>700</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>700</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>700</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>700</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>700</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>700</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>700</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>700</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>700</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>700</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>700</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>700</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>700</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>711</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>711</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>711</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>711</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>711</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>711</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>711</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>711</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>711</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>711</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>711</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>711</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>711</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>711</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>711</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>711</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>711</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>711</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>711</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>711</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>711</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>711</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>711</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>711</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>711</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>711</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>711</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>711</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>711</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>711</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>711</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>711</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>711</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>711</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>711</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>711</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>711</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>711</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>711</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>711</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>711</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>711</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>711</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>711</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>711</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>711</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>711</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>711</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>711</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>711</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>711</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>711</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>711</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>711</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>711</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>711</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>711</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>711</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>711</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>711</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>711</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>711</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>711</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>711</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>711</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>711</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>711</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>711</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>711</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>711</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>711</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>711</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>711</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>711</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>711</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>711</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>711</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>711</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>711</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>711</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>711</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>711</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>711</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>711</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>711</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>711</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>711</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>711</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>711</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>711</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>711</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>711</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>711</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>711</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>711</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>711</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>711</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>711</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>711</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>711</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>711</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>711</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>711</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>711</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>711</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>711</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>711</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>711</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>711</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>711</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>711</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>711</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>711</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>711</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>711</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>711</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>711</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>711</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>711</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>711</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>711</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>711</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>711</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>711</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>711</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>711</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>711</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>711</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>711</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>711</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>711</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>711</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>711</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>711</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>711</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>711</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>711</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>711</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>711</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>711</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>711</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>711</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>711</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>711</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>711</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>711</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>711</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>711</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>711</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>711</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>711</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>711</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>711</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>711</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>711</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>711</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>711</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>711</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>711</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>711</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>711</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>711</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>711</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>711</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>711</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>711</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>711</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>711</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>711</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>711</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>711</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>711</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>711</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>711</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>711</v>
       </c>
@@ -16395,13 +16395,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E678" xr:uid="{628FB668-955F-451D-AA89-12A38E2E8A80}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="B97"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E678" xr:uid="{628FB668-955F-451D-AA89-12A38E2E8A80}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/regionmapping.xlsx
+++ b/regionmapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{768DBE26-FC7C-4309-B178-49D8B4B62097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0207A763-2E41-4FF1-92EE-CB2A24CDE3A7}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{768DBE26-FC7C-4309-B178-49D8B4B62097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F33C694A-C371-4155-A001-5F02A703F3DD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13265E40-8527-45C5-AAA2-ED7961B405B8}"/>
   </bookViews>
@@ -4854,9 +4854,9 @@
   <dimension ref="A1:E678"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="63" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H7" sqref="H7"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <selection pane="bottomLeft" sqref="A1:E678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/regionmapping.xlsx
+++ b/regionmapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{768DBE26-FC7C-4309-B178-49D8B4B62097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6B24D6-46F2-487D-B7DE-AA2A965771C7}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{768DBE26-FC7C-4309-B178-49D8B4B62097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817DA79A-72B6-4D60-B969-9C3BD136C97C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13265E40-8527-45C5-AAA2-ED7961B405B8}"/>
   </bookViews>
@@ -5061,8 +5061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCEC07A-D678-4EC2-A253-8C62F62EE907}">
   <dimension ref="A1:G680"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
